--- a/client/docs/abulfatah tracker.xlsx
+++ b/client/docs/abulfatah tracker.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="52">
   <si>
     <t>Type</t>
   </si>
@@ -92,36 +92,12 @@
     <t>*** This sheet should remain hidden ***</t>
   </si>
   <si>
-    <t>Type 1</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>Type 2</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Type 3</t>
-  </si>
-  <si>
-    <t>Lilly</t>
-  </si>
-  <si>
-    <t>Ted</t>
-  </si>
-  <si>
-    <t>Type 4</t>
-  </si>
-  <si>
     <t>Sorted</t>
   </si>
   <si>
@@ -188,12 +164,6 @@
     <t>contact page design / development</t>
   </si>
   <si>
-    <t>registration page design / development</t>
-  </si>
-  <si>
-    <t>login page design / development</t>
-  </si>
-  <si>
     <t>profile page design / development</t>
   </si>
   <si>
@@ -216,6 +186,27 @@
   </si>
   <si>
     <t>Iftikhar / suhail</t>
+  </si>
+  <si>
+    <t>multiple support language</t>
+  </si>
+  <si>
+    <t>GTM manager for website marketing</t>
+  </si>
+  <si>
+    <t>implements accessbilty</t>
+  </si>
+  <si>
+    <t>admin panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code review </t>
+  </si>
+  <si>
+    <t>code optimzation / security / UAT test</t>
+  </si>
+  <si>
+    <t>user management desing  / development</t>
   </si>
 </sst>
 </file>
@@ -500,8 +491,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Issues" displayName="Issues" ref="B1:J92" totalsRowShown="0" headerRowCellStyle="Heading 2">
-  <autoFilter ref="B1:J92"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Issues" displayName="Issues" ref="B1:J86" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="B1:J86"/>
   <tableColumns count="9">
     <tableColumn id="10" name="#" dataCellStyle="Normal"/>
     <tableColumn id="1" name="TASK" dataCellStyle="Normal"/>
@@ -729,10 +720,10 @@
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J92"/>
+  <dimension ref="B1:J86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -750,28 +741,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -779,30 +770,26 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,1)</f>
-        <v>45323</v>
+        <v>45607</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,4)</f>
-        <v>45326</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H2" s="3"/>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -810,30 +797,26 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,1)</f>
-        <v>45323</v>
+        <v>45608</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,1)</f>
-        <v>45323</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H3" s="3"/>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -841,30 +824,26 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,4)</f>
-        <v>45326</v>
+        <v>45609</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,1)</f>
-        <v>45323</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H4" s="3"/>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -872,85 +851,80 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F6" ca="1" si="0">DATE(YEAR(TODAY()),2,4)</f>
-        <v>45326</v>
+        <v>45610</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,5)</f>
-        <v>45327</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H5" s="3"/>
       <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45326</v>
+        <v>45611</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,4)</f>
-        <v>45326</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H6" s="3"/>
       <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F7" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,8)</f>
-        <v>45330</v>
+        <v>45612</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,8)</f>
-        <v>45330</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H7" s="3"/>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -958,7 +932,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -967,18 +941,14 @@
         <v>14</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" ref="F8:F10" ca="1" si="1">DATE(YEAR(TODAY()),2,8)</f>
-        <v>45330</v>
+        <v>45613</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,13)</f>
-        <v>45335</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H8" s="3"/>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -986,27 +956,23 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45330</v>
+        <v>45614</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,11)</f>
-        <v>45333</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H9" s="3"/>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1014,27 +980,23 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45330</v>
+        <v>45615</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,11)</f>
-        <v>45333</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1042,27 +1004,26 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,12)</f>
-        <v>45334</v>
+        <v>45616</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,12)</f>
-        <v>45334</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H11" s="3"/>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1070,35 +1031,34 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F12" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,12)</f>
-        <v>45334</v>
+        <v>45617</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,13)</f>
-        <v>45335</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H12" s="3"/>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1107,719 +1067,739 @@
         <v>14</v>
       </c>
       <c r="F13" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,15)</f>
-        <v>45337</v>
+        <v>45619</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,18)</f>
-        <v>45340</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H13" s="3"/>
       <c r="I13" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
         <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,20)</f>
-        <v>45342</v>
+        <v>45620</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,20)</f>
-        <v>45342</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H14" s="3"/>
       <c r="I14" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,23)</f>
-        <v>45345</v>
+        <v>45621</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,23)</f>
-        <v>45345</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H15" s="3"/>
       <c r="I15" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F16" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,26)</f>
-        <v>45348</v>
+        <v>45622</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,27)</f>
-        <v>45349</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H16" s="3"/>
       <c r="I16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" ref="F17:F18" ca="1" si="2">DATE(YEAR(TODAY()),2,26)</f>
-        <v>45348</v>
+        <v>45623</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,26)</f>
-        <v>45348</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H17" s="3"/>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45348</v>
+        <v>45624</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,26)</f>
-        <v>45348</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H18" s="3"/>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,27)</f>
-        <v>45349</v>
+        <v>45624</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,27)</f>
-        <v>45349</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H19" s="3"/>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F20" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,27)</f>
-        <v>45349</v>
+        <v>45624</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="3">
-        <f ca="1">DATE(YEAR(TODAY()),2,27)</f>
-        <v>45349</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H20" s="3"/>
       <c r="I20" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="F21" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="3">
+        <v>45624</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
       <c r="H21" s="3"/>
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="F22" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="3">
+        <v>45624</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
       <c r="H22" s="3"/>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="F23" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="3">
+        <v>45624</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
       <c r="H23" s="3"/>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="F24" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="3">
+        <v>45624</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
       <c r="H24" s="3"/>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="F25" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="3">
+        <v>45624</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
       <c r="H25" s="3"/>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="26" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F26" s="3"/>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F27" s="3"/>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F28" s="3"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F29" s="3"/>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F30" s="3"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F31" s="3"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F32" s="3"/>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F33" s="3"/>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F34" s="3"/>
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F35" s="3"/>
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F36" s="3"/>
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F37" s="3"/>
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F38" s="3"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F39" s="3"/>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F40" s="3"/>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F41" s="3"/>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F42" s="3"/>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F43" s="3"/>
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F44" s="3"/>
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F45" s="3"/>
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F46" s="3"/>
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F47" s="3"/>
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F48" s="3"/>
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F49" s="3"/>
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F50" s="3"/>
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F51" s="3"/>
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F52" s="3"/>
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F53" s="3"/>
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F54" s="3"/>
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F55" s="3"/>
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F56" s="3"/>
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F57" s="3"/>
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F58" s="3"/>
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F59" s="3"/>
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F60" s="3"/>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F61" s="3"/>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F62" s="3"/>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F63" s="3"/>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F64" s="3"/>
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F65" s="3"/>
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F66" s="3"/>
       <c r="H66" s="3"/>
     </row>
     <row r="67" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F67" s="3"/>
       <c r="H67" s="3"/>
     </row>
     <row r="68" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F68" s="3"/>
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F69" s="3"/>
       <c r="H69" s="3"/>
     </row>
     <row r="70" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F70" s="3"/>
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F71" s="3"/>
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F72" s="3"/>
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F73" s="3"/>
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F74" s="3"/>
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F75" s="3"/>
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F76" s="3"/>
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F77" s="3"/>
       <c r="H77" s="3"/>
     </row>
     <row r="78" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F78" s="3"/>
       <c r="H78" s="3"/>
     </row>
     <row r="79" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F79" s="3"/>
       <c r="H79" s="3"/>
     </row>
     <row r="80" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F80" s="3"/>
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F81" s="3"/>
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F82" s="3"/>
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F83" s="3"/>
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F84" s="3"/>
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F85" s="3"/>
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F86" s="3"/>
       <c r="H86" s="3"/>
-    </row>
-    <row r="87" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87">
-        <v>86</v>
-      </c>
-      <c r="F87" s="3"/>
-      <c r="H87" s="3"/>
-    </row>
-    <row r="88" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B88">
-        <v>87</v>
-      </c>
-      <c r="F88" s="3"/>
-      <c r="H88" s="3"/>
-    </row>
-    <row r="89" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B89">
-        <v>88</v>
-      </c>
-      <c r="F89" s="3"/>
-      <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B90">
-        <v>89</v>
-      </c>
-      <c r="F90" s="3"/>
-      <c r="H90" s="3"/>
-    </row>
-    <row r="91" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B91">
-        <v>90</v>
-      </c>
-      <c r="F91" s="3"/>
-      <c r="H91" s="3"/>
-    </row>
-    <row r="92" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B92">
-        <v>91</v>
-      </c>
-      <c r="F92" s="3"/>
-      <c r="H92" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="9">
@@ -1839,9 +1819,6 @@
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="H3 H5" formula="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -1935,17 +1912,17 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="N13">
         <f>COUNTA(N16:N45)-COUNTIF(N16:N45,NA())</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O13">
         <f>COUNTA(O16:O45)-COUNTIF(O16:O45,NA())</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="T13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="31" x14ac:dyDescent="0.35">
@@ -1988,11 +1965,11 @@
         <v>#REF!</v>
       </c>
       <c r="I16">
-        <f ca="1">I15+COUNTIFS(Issues[OPENED ON],H16,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I15+COUNTIFS(Issues[OPENED ON],H16,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J16">
-        <f ca="1">J15+COUNTIFS(Issues[CLOSED ON],H16,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J15+COUNTIFS(Issues[CLOSED ON],H16,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N16" t="str">
@@ -2021,20 +1998,20 @@
         <v>#REF!</v>
       </c>
       <c r="I17">
-        <f ca="1">I16+COUNTIFS(Issues[OPENED ON],H17,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I16+COUNTIFS(Issues[OPENED ON],H17,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J17">
-        <f ca="1">J16+COUNTIFS(Issues[CLOSED ON],H17,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N17" t="str">
+        <f>J16+COUNTIFS(Issues[CLOSED ON],H17,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
         <f t="array" ref="N17">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N16, Issues[TYPE]),0))</f>
-        <v>Type 3</v>
-      </c>
-      <c r="O17" t="str">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <f t="array" ref="O17">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O16,Issues[PRIORITY]),0))</f>
-        <v>Low</v>
+        <v>0</v>
       </c>
       <c r="S17" t="str">
         <f t="array" aca="1" ref="S17" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(2:2)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
@@ -2054,28 +2031,28 @@
         <v>#REF!</v>
       </c>
       <c r="I18">
-        <f ca="1">I17+COUNTIFS(Issues[OPENED ON],H18,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I17+COUNTIFS(Issues[OPENED ON],H18,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J18">
-        <f ca="1">J17+COUNTIFS(Issues[CLOSED ON],H18,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" t="str">
+        <f>J17+COUNTIFS(Issues[CLOSED ON],H18,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" t="e">
         <f t="array" ref="N18">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N17, Issues[TYPE]),0))</f>
-        <v>Type 1</v>
-      </c>
-      <c r="O18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O18" t="e">
         <f t="array" ref="O18">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O17,Issues[PRIORITY]),0))</f>
-        <v>High</v>
+        <v>#N/A</v>
       </c>
       <c r="S18" t="str">
         <f t="array" aca="1" ref="S18" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(3:3)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Type 1</v>
+        <v>Type 2</v>
       </c>
       <c r="T18" t="str">
         <f t="array" aca="1" ref="T18" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(3:3)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>High</v>
+        <v>Medium</v>
       </c>
     </row>
     <row r="19" spans="7:20" ht="31" x14ac:dyDescent="0.35">
@@ -2087,28 +2064,28 @@
         <v>#REF!</v>
       </c>
       <c r="I19">
-        <f ca="1">I18+COUNTIFS(Issues[OPENED ON],H19,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I18+COUNTIFS(Issues[OPENED ON],H19,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J19">
-        <f ca="1">J18+COUNTIFS(Issues[CLOSED ON],H19,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" t="str">
+        <f>J18+COUNTIFS(Issues[CLOSED ON],H19,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" t="e">
         <f t="array" ref="N19">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N18, Issues[TYPE]),0))</f>
-        <v>Type 4</v>
-      </c>
-      <c r="O19">
+        <v>#N/A</v>
+      </c>
+      <c r="O19" t="e">
         <f t="array" ref="O19">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O18,Issues[PRIORITY]),0))</f>
-        <v>0</v>
-      </c>
-      <c r="S19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S19" t="e">
         <f t="array" aca="1" ref="S19" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(4:4)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Type 2</v>
-      </c>
-      <c r="T19" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="T19" t="e">
         <f t="array" aca="1" ref="T19" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(4:4)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>Low</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="20" spans="7:20" x14ac:dyDescent="0.35">
@@ -2120,28 +2097,28 @@
         <v>#REF!</v>
       </c>
       <c r="I20">
-        <f ca="1">I19+COUNTIFS(Issues[OPENED ON],H20,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I19+COUNTIFS(Issues[OPENED ON],H20,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J20">
-        <f ca="1">J19+COUNTIFS(Issues[CLOSED ON],H20,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N20">
+        <f>J19+COUNTIFS(Issues[CLOSED ON],H20,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" t="e">
         <f t="array" ref="N20">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N19, Issues[TYPE]),0))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="O20" t="e">
         <f t="array" ref="O20">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O19,Issues[PRIORITY]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="S20" t="str">
+      <c r="S20" t="e">
         <f t="array" aca="1" ref="S20" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(5:5)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Type 3</v>
-      </c>
-      <c r="T20" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="T20" t="e">
         <f t="array" aca="1" ref="T20" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(5:5)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>Medium</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="21" spans="7:20" x14ac:dyDescent="0.35">
@@ -2153,11 +2130,11 @@
         <v>#REF!</v>
       </c>
       <c r="I21">
-        <f ca="1">I20+COUNTIFS(Issues[OPENED ON],H21,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I20+COUNTIFS(Issues[OPENED ON],H21,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J21">
-        <f ca="1">J20+COUNTIFS(Issues[CLOSED ON],H21,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J20+COUNTIFS(Issues[CLOSED ON],H21,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N21" t="e">
@@ -2168,9 +2145,9 @@
         <f t="array" ref="O21">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O20,Issues[PRIORITY]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="S21" t="str">
+      <c r="S21" t="e">
         <f t="array" aca="1" ref="S21" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(6:6)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Type 4</v>
+        <v>#NUM!</v>
       </c>
       <c r="T21" t="e">
         <f t="array" aca="1" ref="T21" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(6:6)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -2186,11 +2163,11 @@
         <v>#REF!</v>
       </c>
       <c r="I22">
-        <f ca="1">I21+COUNTIFS(Issues[OPENED ON],H22,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I21+COUNTIFS(Issues[OPENED ON],H22,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J22">
-        <f ca="1">J21+COUNTIFS(Issues[CLOSED ON],H22,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J21+COUNTIFS(Issues[CLOSED ON],H22,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N22" t="e">
@@ -2219,11 +2196,11 @@
         <v>#REF!</v>
       </c>
       <c r="I23">
-        <f ca="1">I22+COUNTIFS(Issues[OPENED ON],H23,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I22+COUNTIFS(Issues[OPENED ON],H23,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J23">
-        <f ca="1">J22+COUNTIFS(Issues[CLOSED ON],H23,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J22+COUNTIFS(Issues[CLOSED ON],H23,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N23" t="e">
@@ -2252,11 +2229,11 @@
         <v>#REF!</v>
       </c>
       <c r="I24">
-        <f ca="1">I23+COUNTIFS(Issues[OPENED ON],H24,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I23+COUNTIFS(Issues[OPENED ON],H24,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J24">
-        <f ca="1">J23+COUNTIFS(Issues[CLOSED ON],H24,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J23+COUNTIFS(Issues[CLOSED ON],H24,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N24" t="e">
@@ -2285,11 +2262,11 @@
         <v>#REF!</v>
       </c>
       <c r="I25">
-        <f ca="1">I24+COUNTIFS(Issues[OPENED ON],H25,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I24+COUNTIFS(Issues[OPENED ON],H25,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J25">
-        <f ca="1">J24+COUNTIFS(Issues[CLOSED ON],H25,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J24+COUNTIFS(Issues[CLOSED ON],H25,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N25" t="e">
@@ -2318,11 +2295,11 @@
         <v>#REF!</v>
       </c>
       <c r="I26">
-        <f ca="1">I25+COUNTIFS(Issues[OPENED ON],H26,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I25+COUNTIFS(Issues[OPENED ON],H26,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J26">
-        <f ca="1">J25+COUNTIFS(Issues[CLOSED ON],H26,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J25+COUNTIFS(Issues[CLOSED ON],H26,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N26" t="e">
@@ -2351,11 +2328,11 @@
         <v>#REF!</v>
       </c>
       <c r="I27">
-        <f ca="1">I26+COUNTIFS(Issues[OPENED ON],H27,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I26+COUNTIFS(Issues[OPENED ON],H27,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J27">
-        <f ca="1">J26+COUNTIFS(Issues[CLOSED ON],H27,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J26+COUNTIFS(Issues[CLOSED ON],H27,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N27" t="e">
@@ -2384,11 +2361,11 @@
         <v>#REF!</v>
       </c>
       <c r="I28">
-        <f ca="1">I27+COUNTIFS(Issues[OPENED ON],H28,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I27+COUNTIFS(Issues[OPENED ON],H28,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J28">
-        <f ca="1">J27+COUNTIFS(Issues[CLOSED ON],H28,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J27+COUNTIFS(Issues[CLOSED ON],H28,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N28" t="e">
@@ -2417,11 +2394,11 @@
         <v>#REF!</v>
       </c>
       <c r="I29">
-        <f ca="1">I28+COUNTIFS(Issues[OPENED ON],H29,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I28+COUNTIFS(Issues[OPENED ON],H29,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J29">
-        <f ca="1">J28+COUNTIFS(Issues[CLOSED ON],H29,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J28+COUNTIFS(Issues[CLOSED ON],H29,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N29" t="e">
@@ -2450,11 +2427,11 @@
         <v>#REF!</v>
       </c>
       <c r="I30">
-        <f ca="1">I29+COUNTIFS(Issues[OPENED ON],H30,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I29+COUNTIFS(Issues[OPENED ON],H30,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J30">
-        <f ca="1">J29+COUNTIFS(Issues[CLOSED ON],H30,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J29+COUNTIFS(Issues[CLOSED ON],H30,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N30" t="e">
@@ -2483,11 +2460,11 @@
         <v>#REF!</v>
       </c>
       <c r="I31">
-        <f ca="1">I30+COUNTIFS(Issues[OPENED ON],H31,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I30+COUNTIFS(Issues[OPENED ON],H31,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J31">
-        <f ca="1">J30+COUNTIFS(Issues[CLOSED ON],H31,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J30+COUNTIFS(Issues[CLOSED ON],H31,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N31" t="e">
@@ -2516,11 +2493,11 @@
         <v>#REF!</v>
       </c>
       <c r="I32">
-        <f ca="1">I31+COUNTIFS(Issues[OPENED ON],H32,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I31+COUNTIFS(Issues[OPENED ON],H32,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J32">
-        <f ca="1">J31+COUNTIFS(Issues[CLOSED ON],H32,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J31+COUNTIFS(Issues[CLOSED ON],H32,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N32" t="e">
@@ -2549,11 +2526,11 @@
         <v>#REF!</v>
       </c>
       <c r="I33">
-        <f ca="1">I32+COUNTIFS(Issues[OPENED ON],H33,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I32+COUNTIFS(Issues[OPENED ON],H33,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J33">
-        <f ca="1">J32+COUNTIFS(Issues[CLOSED ON],H33,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J32+COUNTIFS(Issues[CLOSED ON],H33,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N33" t="e">
@@ -2582,11 +2559,11 @@
         <v>#REF!</v>
       </c>
       <c r="I34">
-        <f ca="1">I33+COUNTIFS(Issues[OPENED ON],H34,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I33+COUNTIFS(Issues[OPENED ON],H34,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J34">
-        <f ca="1">J33+COUNTIFS(Issues[CLOSED ON],H34,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J33+COUNTIFS(Issues[CLOSED ON],H34,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N34" t="e">
@@ -2615,11 +2592,11 @@
         <v>#REF!</v>
       </c>
       <c r="I35">
-        <f ca="1">I34+COUNTIFS(Issues[OPENED ON],H35,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I34+COUNTIFS(Issues[OPENED ON],H35,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J35">
-        <f ca="1">J34+COUNTIFS(Issues[CLOSED ON],H35,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J34+COUNTIFS(Issues[CLOSED ON],H35,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N35" t="e">
@@ -2648,11 +2625,11 @@
         <v>#REF!</v>
       </c>
       <c r="I36">
-        <f ca="1">I35+COUNTIFS(Issues[OPENED ON],H36,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I35+COUNTIFS(Issues[OPENED ON],H36,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J36">
-        <f ca="1">J35+COUNTIFS(Issues[CLOSED ON],H36,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J35+COUNTIFS(Issues[CLOSED ON],H36,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N36" t="e">
@@ -2681,11 +2658,11 @@
         <v>#REF!</v>
       </c>
       <c r="I37">
-        <f ca="1">I36+COUNTIFS(Issues[OPENED ON],H37,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I36+COUNTIFS(Issues[OPENED ON],H37,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J37">
-        <f ca="1">J36+COUNTIFS(Issues[CLOSED ON],H37,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J36+COUNTIFS(Issues[CLOSED ON],H37,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N37" t="e">
@@ -2714,11 +2691,11 @@
         <v>#REF!</v>
       </c>
       <c r="I38">
-        <f ca="1">I37+COUNTIFS(Issues[OPENED ON],H38,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I37+COUNTIFS(Issues[OPENED ON],H38,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J38">
-        <f ca="1">J37+COUNTIFS(Issues[CLOSED ON],H38,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J37+COUNTIFS(Issues[CLOSED ON],H38,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N38" t="e">
@@ -2747,11 +2724,11 @@
         <v>#REF!</v>
       </c>
       <c r="I39">
-        <f ca="1">I38+COUNTIFS(Issues[OPENED ON],H39,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I38+COUNTIFS(Issues[OPENED ON],H39,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J39">
-        <f ca="1">J38+COUNTIFS(Issues[CLOSED ON],H39,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J38+COUNTIFS(Issues[CLOSED ON],H39,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N39" t="e">
@@ -2780,11 +2757,11 @@
         <v>#REF!</v>
       </c>
       <c r="I40">
-        <f ca="1">I39+COUNTIFS(Issues[OPENED ON],H40,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I39+COUNTIFS(Issues[OPENED ON],H40,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J40">
-        <f ca="1">J39+COUNTIFS(Issues[CLOSED ON],H40,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J39+COUNTIFS(Issues[CLOSED ON],H40,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N40" t="e">
@@ -2813,11 +2790,11 @@
         <v>#REF!</v>
       </c>
       <c r="I41">
-        <f ca="1">I40+COUNTIFS(Issues[OPENED ON],H41,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I40+COUNTIFS(Issues[OPENED ON],H41,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J41">
-        <f ca="1">J40+COUNTIFS(Issues[CLOSED ON],H41,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J40+COUNTIFS(Issues[CLOSED ON],H41,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N41" t="e">
@@ -2846,11 +2823,11 @@
         <v>#REF!</v>
       </c>
       <c r="I42">
-        <f ca="1">I41+COUNTIFS(Issues[OPENED ON],H42,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I41+COUNTIFS(Issues[OPENED ON],H42,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J42">
-        <f ca="1">J41+COUNTIFS(Issues[CLOSED ON],H42,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J41+COUNTIFS(Issues[CLOSED ON],H42,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N42" t="e">
@@ -2879,11 +2856,11 @@
         <v>#REF!</v>
       </c>
       <c r="I43">
-        <f ca="1">I42+COUNTIFS(Issues[OPENED ON],H43,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I42+COUNTIFS(Issues[OPENED ON],H43,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J43">
-        <f ca="1">J42+COUNTIFS(Issues[CLOSED ON],H43,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J42+COUNTIFS(Issues[CLOSED ON],H43,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N43" t="e">
@@ -2912,11 +2889,11 @@
         <v>#REF!</v>
       </c>
       <c r="I44">
-        <f ca="1">I43+COUNTIFS(Issues[OPENED ON],H44,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I43+COUNTIFS(Issues[OPENED ON],H44,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J44">
-        <f ca="1">J43+COUNTIFS(Issues[CLOSED ON],H44,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J43+COUNTIFS(Issues[CLOSED ON],H44,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N44" t="e">
@@ -2945,11 +2922,11 @@
         <v>#REF!</v>
       </c>
       <c r="I45">
-        <f ca="1">I44+COUNTIFS(Issues[OPENED ON],H45,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I44+COUNTIFS(Issues[OPENED ON],H45,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J45">
-        <f ca="1">J44+COUNTIFS(Issues[CLOSED ON],H45,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J44+COUNTIFS(Issues[CLOSED ON],H45,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="N45" t="e">
@@ -2978,11 +2955,11 @@
         <v>#REF!</v>
       </c>
       <c r="I46">
-        <f ca="1">I45+COUNTIFS(Issues[OPENED ON],H46,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I45+COUNTIFS(Issues[OPENED ON],H46,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J46">
-        <f ca="1">J45+COUNTIFS(Issues[CLOSED ON],H46,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J45+COUNTIFS(Issues[CLOSED ON],H46,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -2995,11 +2972,11 @@
         <v>#REF!</v>
       </c>
       <c r="I47">
-        <f ca="1">I46+COUNTIFS(Issues[OPENED ON],H47,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I46+COUNTIFS(Issues[OPENED ON],H47,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J47">
-        <f ca="1">J46+COUNTIFS(Issues[CLOSED ON],H47,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J46+COUNTIFS(Issues[CLOSED ON],H47,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3012,11 +2989,11 @@
         <v>#REF!</v>
       </c>
       <c r="I48">
-        <f ca="1">I47+COUNTIFS(Issues[OPENED ON],H48,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I47+COUNTIFS(Issues[OPENED ON],H48,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J48">
-        <f ca="1">J47+COUNTIFS(Issues[CLOSED ON],H48,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J47+COUNTIFS(Issues[CLOSED ON],H48,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3029,11 +3006,11 @@
         <v>#REF!</v>
       </c>
       <c r="I49">
-        <f ca="1">I48+COUNTIFS(Issues[OPENED ON],H49,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I48+COUNTIFS(Issues[OPENED ON],H49,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J49">
-        <f ca="1">J48+COUNTIFS(Issues[CLOSED ON],H49,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J48+COUNTIFS(Issues[CLOSED ON],H49,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3046,11 +3023,11 @@
         <v>#REF!</v>
       </c>
       <c r="I50">
-        <f ca="1">I49+COUNTIFS(Issues[OPENED ON],H50,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I49+COUNTIFS(Issues[OPENED ON],H50,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J50">
-        <f ca="1">J49+COUNTIFS(Issues[CLOSED ON],H50,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J49+COUNTIFS(Issues[CLOSED ON],H50,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3063,11 +3040,11 @@
         <v>#REF!</v>
       </c>
       <c r="I51">
-        <f ca="1">I50+COUNTIFS(Issues[OPENED ON],H51,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I50+COUNTIFS(Issues[OPENED ON],H51,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J51">
-        <f ca="1">J50+COUNTIFS(Issues[CLOSED ON],H51,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J50+COUNTIFS(Issues[CLOSED ON],H51,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3080,11 +3057,11 @@
         <v>#REF!</v>
       </c>
       <c r="I52">
-        <f ca="1">I51+COUNTIFS(Issues[OPENED ON],H52,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I51+COUNTIFS(Issues[OPENED ON],H52,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J52">
-        <f ca="1">J51+COUNTIFS(Issues[CLOSED ON],H52,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J51+COUNTIFS(Issues[CLOSED ON],H52,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3097,11 +3074,11 @@
         <v>#REF!</v>
       </c>
       <c r="I53">
-        <f ca="1">I52+COUNTIFS(Issues[OPENED ON],H53,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I52+COUNTIFS(Issues[OPENED ON],H53,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J53">
-        <f ca="1">J52+COUNTIFS(Issues[CLOSED ON],H53,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J52+COUNTIFS(Issues[CLOSED ON],H53,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3114,11 +3091,11 @@
         <v>#REF!</v>
       </c>
       <c r="I54">
-        <f ca="1">I53+COUNTIFS(Issues[OPENED ON],H54,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I53+COUNTIFS(Issues[OPENED ON],H54,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J54">
-        <f ca="1">J53+COUNTIFS(Issues[CLOSED ON],H54,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J53+COUNTIFS(Issues[CLOSED ON],H54,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3131,11 +3108,11 @@
         <v>#REF!</v>
       </c>
       <c r="I55">
-        <f ca="1">I54+COUNTIFS(Issues[OPENED ON],H55,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I54+COUNTIFS(Issues[OPENED ON],H55,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J55">
-        <f ca="1">J54+COUNTIFS(Issues[CLOSED ON],H55,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J54+COUNTIFS(Issues[CLOSED ON],H55,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3148,11 +3125,11 @@
         <v>#REF!</v>
       </c>
       <c r="I56">
-        <f ca="1">I55+COUNTIFS(Issues[OPENED ON],H56,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I55+COUNTIFS(Issues[OPENED ON],H56,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J56">
-        <f ca="1">J55+COUNTIFS(Issues[CLOSED ON],H56,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J55+COUNTIFS(Issues[CLOSED ON],H56,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3165,11 +3142,11 @@
         <v>#REF!</v>
       </c>
       <c r="I57">
-        <f ca="1">I56+COUNTIFS(Issues[OPENED ON],H57,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I56+COUNTIFS(Issues[OPENED ON],H57,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J57">
-        <f ca="1">J56+COUNTIFS(Issues[CLOSED ON],H57,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J56+COUNTIFS(Issues[CLOSED ON],H57,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3182,11 +3159,11 @@
         <v>#REF!</v>
       </c>
       <c r="I58">
-        <f ca="1">I57+COUNTIFS(Issues[OPENED ON],H58,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I57+COUNTIFS(Issues[OPENED ON],H58,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J58">
-        <f ca="1">J57+COUNTIFS(Issues[CLOSED ON],H58,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J57+COUNTIFS(Issues[CLOSED ON],H58,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3199,11 +3176,11 @@
         <v>#REF!</v>
       </c>
       <c r="I59">
-        <f ca="1">I58+COUNTIFS(Issues[OPENED ON],H59,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I58+COUNTIFS(Issues[OPENED ON],H59,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J59">
-        <f ca="1">J58+COUNTIFS(Issues[CLOSED ON],H59,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J58+COUNTIFS(Issues[CLOSED ON],H59,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3216,11 +3193,11 @@
         <v>#REF!</v>
       </c>
       <c r="I60">
-        <f ca="1">I59+COUNTIFS(Issues[OPENED ON],H60,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I59+COUNTIFS(Issues[OPENED ON],H60,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J60">
-        <f ca="1">J59+COUNTIFS(Issues[CLOSED ON],H60,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J59+COUNTIFS(Issues[CLOSED ON],H60,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3233,11 +3210,11 @@
         <v>#REF!</v>
       </c>
       <c r="I61">
-        <f ca="1">I60+COUNTIFS(Issues[OPENED ON],H61,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I60+COUNTIFS(Issues[OPENED ON],H61,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J61">
-        <f ca="1">J60+COUNTIFS(Issues[CLOSED ON],H61,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J60+COUNTIFS(Issues[CLOSED ON],H61,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3250,11 +3227,11 @@
         <v>#REF!</v>
       </c>
       <c r="I62">
-        <f ca="1">I61+COUNTIFS(Issues[OPENED ON],H62,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I61+COUNTIFS(Issues[OPENED ON],H62,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J62">
-        <f ca="1">J61+COUNTIFS(Issues[CLOSED ON],H62,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J61+COUNTIFS(Issues[CLOSED ON],H62,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3267,11 +3244,11 @@
         <v>#REF!</v>
       </c>
       <c r="I63">
-        <f ca="1">I62+COUNTIFS(Issues[OPENED ON],H63,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I62+COUNTIFS(Issues[OPENED ON],H63,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J63">
-        <f ca="1">J62+COUNTIFS(Issues[CLOSED ON],H63,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J62+COUNTIFS(Issues[CLOSED ON],H63,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3284,11 +3261,11 @@
         <v>#REF!</v>
       </c>
       <c r="I64">
-        <f ca="1">I63+COUNTIFS(Issues[OPENED ON],H64,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I63+COUNTIFS(Issues[OPENED ON],H64,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J64">
-        <f ca="1">J63+COUNTIFS(Issues[CLOSED ON],H64,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J63+COUNTIFS(Issues[CLOSED ON],H64,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3301,11 +3278,11 @@
         <v>#REF!</v>
       </c>
       <c r="I65">
-        <f ca="1">I64+COUNTIFS(Issues[OPENED ON],H65,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I64+COUNTIFS(Issues[OPENED ON],H65,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J65">
-        <f ca="1">J64+COUNTIFS(Issues[CLOSED ON],H65,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J64+COUNTIFS(Issues[CLOSED ON],H65,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3318,11 +3295,11 @@
         <v>#REF!</v>
       </c>
       <c r="I66">
-        <f ca="1">I65+COUNTIFS(Issues[OPENED ON],H66,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I65+COUNTIFS(Issues[OPENED ON],H66,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J66">
-        <f ca="1">J65+COUNTIFS(Issues[CLOSED ON],H66,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J65+COUNTIFS(Issues[CLOSED ON],H66,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3335,11 +3312,11 @@
         <v>#REF!</v>
       </c>
       <c r="I67">
-        <f ca="1">I66+COUNTIFS(Issues[OPENED ON],H67,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I66+COUNTIFS(Issues[OPENED ON],H67,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J67">
-        <f ca="1">J66+COUNTIFS(Issues[CLOSED ON],H67,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J66+COUNTIFS(Issues[CLOSED ON],H67,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3352,11 +3329,11 @@
         <v>#REF!</v>
       </c>
       <c r="I68">
-        <f ca="1">I67+COUNTIFS(Issues[OPENED ON],H68,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I67+COUNTIFS(Issues[OPENED ON],H68,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J68">
-        <f ca="1">J67+COUNTIFS(Issues[CLOSED ON],H68,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J67+COUNTIFS(Issues[CLOSED ON],H68,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3369,11 +3346,11 @@
         <v>#REF!</v>
       </c>
       <c r="I69">
-        <f ca="1">I68+COUNTIFS(Issues[OPENED ON],H69,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I68+COUNTIFS(Issues[OPENED ON],H69,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J69">
-        <f ca="1">J68+COUNTIFS(Issues[CLOSED ON],H69,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J68+COUNTIFS(Issues[CLOSED ON],H69,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3386,11 +3363,11 @@
         <v>#REF!</v>
       </c>
       <c r="I70">
-        <f ca="1">I69+COUNTIFS(Issues[OPENED ON],H70,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I69+COUNTIFS(Issues[OPENED ON],H70,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J70">
-        <f ca="1">J69+COUNTIFS(Issues[CLOSED ON],H70,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J69+COUNTIFS(Issues[CLOSED ON],H70,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3403,11 +3380,11 @@
         <v>#REF!</v>
       </c>
       <c r="I71">
-        <f ca="1">I70+COUNTIFS(Issues[OPENED ON],H71,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I70+COUNTIFS(Issues[OPENED ON],H71,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J71">
-        <f ca="1">J70+COUNTIFS(Issues[CLOSED ON],H71,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J70+COUNTIFS(Issues[CLOSED ON],H71,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3420,11 +3397,11 @@
         <v>#REF!</v>
       </c>
       <c r="I72">
-        <f ca="1">I71+COUNTIFS(Issues[OPENED ON],H72,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I71+COUNTIFS(Issues[OPENED ON],H72,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J72">
-        <f ca="1">J71+COUNTIFS(Issues[CLOSED ON],H72,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J71+COUNTIFS(Issues[CLOSED ON],H72,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3437,11 +3414,11 @@
         <v>#REF!</v>
       </c>
       <c r="I73">
-        <f ca="1">I72+COUNTIFS(Issues[OPENED ON],H73,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I72+COUNTIFS(Issues[OPENED ON],H73,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J73">
-        <f ca="1">J72+COUNTIFS(Issues[CLOSED ON],H73,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J72+COUNTIFS(Issues[CLOSED ON],H73,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3454,11 +3431,11 @@
         <v>#REF!</v>
       </c>
       <c r="I74">
-        <f ca="1">I73+COUNTIFS(Issues[OPENED ON],H74,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I73+COUNTIFS(Issues[OPENED ON],H74,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J74">
-        <f ca="1">J73+COUNTIFS(Issues[CLOSED ON],H74,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J73+COUNTIFS(Issues[CLOSED ON],H74,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3471,11 +3448,11 @@
         <v>#REF!</v>
       </c>
       <c r="I75">
-        <f ca="1">I74+COUNTIFS(Issues[OPENED ON],H75,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I74+COUNTIFS(Issues[OPENED ON],H75,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J75">
-        <f ca="1">J74+COUNTIFS(Issues[CLOSED ON],H75,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J74+COUNTIFS(Issues[CLOSED ON],H75,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3488,11 +3465,11 @@
         <v>#REF!</v>
       </c>
       <c r="I76">
-        <f ca="1">I75+COUNTIFS(Issues[OPENED ON],H76,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I75+COUNTIFS(Issues[OPENED ON],H76,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J76">
-        <f ca="1">J75+COUNTIFS(Issues[CLOSED ON],H76,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J75+COUNTIFS(Issues[CLOSED ON],H76,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3505,11 +3482,11 @@
         <v>#REF!</v>
       </c>
       <c r="I77">
-        <f ca="1">I76+COUNTIFS(Issues[OPENED ON],H77,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I76+COUNTIFS(Issues[OPENED ON],H77,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J77">
-        <f ca="1">J76+COUNTIFS(Issues[CLOSED ON],H77,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J76+COUNTIFS(Issues[CLOSED ON],H77,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3522,11 +3499,11 @@
         <v>#REF!</v>
       </c>
       <c r="I78">
-        <f ca="1">I77+COUNTIFS(Issues[OPENED ON],H78,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I77+COUNTIFS(Issues[OPENED ON],H78,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J78">
-        <f ca="1">J77+COUNTIFS(Issues[CLOSED ON],H78,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J77+COUNTIFS(Issues[CLOSED ON],H78,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3539,11 +3516,11 @@
         <v>#REF!</v>
       </c>
       <c r="I79">
-        <f ca="1">I78+COUNTIFS(Issues[OPENED ON],H79,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I78+COUNTIFS(Issues[OPENED ON],H79,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J79">
-        <f ca="1">J78+COUNTIFS(Issues[CLOSED ON],H79,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J78+COUNTIFS(Issues[CLOSED ON],H79,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
@@ -3556,11 +3533,11 @@
         <v>#REF!</v>
       </c>
       <c r="I80">
-        <f ca="1">I79+COUNTIFS(Issues[OPENED ON],H80,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>I79+COUNTIFS(Issues[OPENED ON],H80,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
       <c r="J80">
-        <f ca="1">J79+COUNTIFS(Issues[CLOSED ON],H80,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <f>J79+COUNTIFS(Issues[CLOSED ON],H80,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>

--- a/client/docs/abulfatah tracker.xlsx
+++ b/client/docs/abulfatah tracker.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="53">
   <si>
     <t>Type</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>*** This sheet should remain hidden ***</t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
   <si>
     <t>Type 2</t>
@@ -722,8 +725,8 @@
   </sheetPr>
   <dimension ref="B1:J86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -741,28 +744,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -770,26 +773,26 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
       </c>
       <c r="F2" s="3">
         <v>45607</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -797,26 +800,26 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
       </c>
       <c r="F3" s="3">
         <v>45608</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -824,26 +827,26 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
       </c>
       <c r="F4" s="3">
         <v>45609</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -851,26 +854,26 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
       </c>
       <c r="F5" s="3">
         <v>45610</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -878,26 +881,26 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
       </c>
       <c r="F6" s="3">
         <v>45611</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -905,26 +908,26 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
         <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
       </c>
       <c r="F7" s="3">
         <v>45612</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -932,23 +935,23 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
         <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
       </c>
       <c r="F8" s="3">
         <v>45613</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -956,23 +959,23 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
         <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
       </c>
       <c r="F9" s="3">
         <v>45614</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -980,23 +983,23 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
         <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
       </c>
       <c r="F10" s="3">
         <v>45615</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1004,26 +1007,26 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="3">
         <v>45616</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1031,26 +1034,26 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="3">
         <v>45617</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1058,26 +1061,26 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" s="3">
         <v>45619</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1085,26 +1088,26 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="3">
         <v>45620</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1112,26 +1115,26 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="3">
         <v>45621</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1139,23 +1142,23 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" s="3">
         <v>45622</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1163,23 +1166,23 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" s="3">
         <v>45623</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1187,23 +1190,23 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="3">
         <v>45624</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1211,23 +1214,23 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="3">
         <v>45624</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1235,23 +1238,23 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" s="3">
         <v>45624</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1259,23 +1262,23 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F21" s="3">
         <v>45624</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1283,23 +1286,23 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F22" s="3">
         <v>45624</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1307,23 +1310,23 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
         <v>13</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
       </c>
       <c r="F23" s="3">
         <v>45624</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1331,23 +1334,23 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
         <v>13</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
       </c>
       <c r="F24" s="3">
         <v>45624</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1355,23 +1358,23 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
         <v>13</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
       </c>
       <c r="F25" s="3">
         <v>45624</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1916,13 +1919,13 @@
       </c>
       <c r="O13">
         <f>COUNTA(O16:O45)-COUNTIF(O16:O45,NA())</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="31" x14ac:dyDescent="0.35">
@@ -1978,7 +1981,7 @@
       </c>
       <c r="O16" t="str">
         <f t="array" ref="O16">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O15,Issues[PRIORITY]),0))</f>
-        <v>Medium</v>
+        <v>High</v>
       </c>
       <c r="S16" t="str">
         <f t="array" aca="1" ref="S16" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(1:1)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
@@ -2009,9 +2012,9 @@
         <f t="array" ref="N17">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N16, Issues[TYPE]),0))</f>
         <v>0</v>
       </c>
-      <c r="O17">
+      <c r="O17" t="str">
         <f t="array" ref="O17">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O16,Issues[PRIORITY]),0))</f>
-        <v>0</v>
+        <v>Medium</v>
       </c>
       <c r="S17" t="str">
         <f t="array" aca="1" ref="S17" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(2:2)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
@@ -2042,9 +2045,9 @@
         <f t="array" ref="N18">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N17, Issues[TYPE]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O18" t="e">
+      <c r="O18">
         <f t="array" ref="O18">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O17,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S18" t="str">
         <f t="array" aca="1" ref="S18" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(3:3)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
@@ -2052,7 +2055,7 @@
       </c>
       <c r="T18" t="str">
         <f t="array" aca="1" ref="T18" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(3:3)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>Medium</v>
+        <v>High</v>
       </c>
     </row>
     <row r="19" spans="7:20" ht="31" x14ac:dyDescent="0.35">
@@ -2083,9 +2086,9 @@
         <f t="array" aca="1" ref="S19" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(4:4)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
         <v>#NUM!</v>
       </c>
-      <c r="T19" t="e">
+      <c r="T19" t="str">
         <f t="array" aca="1" ref="T19" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(4:4)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
+        <v>Medium</v>
       </c>
     </row>
     <row r="20" spans="7:20" x14ac:dyDescent="0.35">

--- a/client/docs/abulfatah tracker.xlsx
+++ b/client/docs/abulfatah tracker.xlsx
@@ -725,8 +725,8 @@
   </sheetPr>
   <dimension ref="B1:J86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -735,7 +735,7 @@
     <col min="2" max="2" width="6.25" customWidth="1"/>
     <col min="3" max="3" width="39.08203125" customWidth="1"/>
     <col min="4" max="9" width="18.08203125" customWidth="1"/>
-    <col min="10" max="10" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="38.25" customWidth="1"/>
     <col min="11" max="11" width="2.58203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1298,11 +1298,11 @@
         <v>45624</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">

--- a/client/docs/abulfatah tracker.xlsx
+++ b/client/docs/abulfatah tracker.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="55">
   <si>
     <t>Type</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>user management desing  / development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use angular material for curd with pagination or sorting etc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">need to improve mobile based menu </t>
   </si>
 </sst>
 </file>
@@ -725,8 +731,8 @@
   </sheetPr>
   <dimension ref="B1:J86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -927,7 +933,7 @@
         <v>25</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1161,7 +1167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>17</v>
       </c>
@@ -1185,7 +1191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>18</v>
       </c>
@@ -1209,7 +1215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>19</v>
       </c>
@@ -1233,7 +1239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>20</v>
       </c>
@@ -1257,7 +1263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>21</v>
       </c>
@@ -1280,8 +1286,11 @@
       <c r="I21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>22</v>
       </c>
@@ -1305,7 +1314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>23</v>
       </c>
@@ -1329,7 +1338,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>24</v>
       </c>
@@ -1353,7 +1362,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>25</v>
       </c>
@@ -1377,49 +1386,49 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>26</v>
       </c>
       <c r="F26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>32</v>
       </c>
       <c r="F27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>33</v>
       </c>
       <c r="F28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>34</v>
       </c>
       <c r="F29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>35</v>
       </c>
       <c r="F30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>36</v>
       </c>
       <c r="F31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>37</v>
       </c>

--- a/client/docs/abulfatah tracker.xlsx
+++ b/client/docs/abulfatah tracker.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="56">
   <si>
     <t>Type</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t xml:space="preserve">need to improve mobile based menu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light mode / Dark mode </t>
   </si>
 </sst>
 </file>
@@ -731,8 +734,8 @@
   </sheetPr>
   <dimension ref="B1:J86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1389,6 +1392,15 @@
     <row r="26" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
       </c>
       <c r="F26" s="3"/>
       <c r="H26" s="3"/>
